--- a/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,10 +94,10 @@
     <t>Vldlr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H2">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I2">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J2">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.180800721190486</v>
+        <v>0.202088</v>
       </c>
       <c r="N2">
-        <v>0.180800721190486</v>
+        <v>0.404176</v>
       </c>
       <c r="O2">
-        <v>0.03328723229921456</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P2">
-        <v>0.03328723229921456</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q2">
-        <v>0.0394688002816606</v>
+        <v>0.002604712232</v>
       </c>
       <c r="R2">
-        <v>0.0394688002816606</v>
+        <v>0.010418848928</v>
       </c>
       <c r="S2">
-        <v>0.001126769853697003</v>
+        <v>5.75753873123088E-05</v>
       </c>
       <c r="T2">
-        <v>0.001126769853697003</v>
+        <v>4.365786779283257E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H3">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I3">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J3">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.97039084334425</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N3">
-        <v>2.97039084334425</v>
+        <v>9.253715</v>
       </c>
       <c r="O3">
-        <v>0.5468788474449011</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P3">
-        <v>0.5468788474449011</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q3">
-        <v>0.6484363678555769</v>
+        <v>0.03975704421166667</v>
       </c>
       <c r="R3">
-        <v>0.6484363678555769</v>
+        <v>0.23854226527</v>
       </c>
       <c r="S3">
-        <v>0.01851180036196692</v>
+        <v>0.0008788023455173352</v>
       </c>
       <c r="T3">
-        <v>0.01851180036196692</v>
+        <v>0.0009995582767471389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H4">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I4">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J4">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.153452167344145</v>
+        <v>0.02256566666666666</v>
       </c>
       <c r="N4">
-        <v>0.153452167344145</v>
+        <v>0.06769699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02825208830788276</v>
+        <v>0.004017770251757696</v>
       </c>
       <c r="P4">
-        <v>0.02825208830788276</v>
+        <v>0.004667715627680435</v>
       </c>
       <c r="Q4">
-        <v>0.03349861054654202</v>
+        <v>0.0002908488776666666</v>
       </c>
       <c r="R4">
-        <v>0.03349861054654202</v>
+        <v>0.001745093266</v>
       </c>
       <c r="S4">
-        <v>0.0009563306772746924</v>
+        <v>6.429016063763259E-06</v>
       </c>
       <c r="T4">
-        <v>0.0009563306772746924</v>
+        <v>7.312424973208171E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H5">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I5">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J5">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.12688988333106</v>
+        <v>0.006825666666666667</v>
       </c>
       <c r="N5">
-        <v>2.12688988333106</v>
+        <v>0.020477</v>
       </c>
       <c r="O5">
-        <v>0.3915818319480014</v>
+        <v>0.001215295824707777</v>
       </c>
       <c r="P5">
-        <v>0.3915818319480014</v>
+        <v>0.001411891411850042</v>
       </c>
       <c r="Q5">
-        <v>0.464300095008113</v>
+        <v>8.797601766666666E-05</v>
       </c>
       <c r="R5">
-        <v>0.464300095008113</v>
+        <v>0.000527856106</v>
       </c>
       <c r="S5">
-        <v>0.01325501019515116</v>
+        <v>1.944649865395516E-06</v>
       </c>
       <c r="T5">
-        <v>0.01325501019515116</v>
+        <v>2.21186354161017E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>6.23075727045983</v>
+        <v>0.012889</v>
       </c>
       <c r="H6">
-        <v>6.23075727045983</v>
+        <v>0.025778</v>
       </c>
       <c r="I6">
-        <v>0.9661500889119102</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J6">
-        <v>0.9661500889119102</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.180800721190486</v>
+        <v>0.1563466666666667</v>
       </c>
       <c r="N6">
-        <v>0.180800721190486</v>
+        <v>0.46904</v>
       </c>
       <c r="O6">
-        <v>0.03328723229921456</v>
+        <v>0.02783720045030695</v>
       </c>
       <c r="P6">
-        <v>0.03328723229921456</v>
+        <v>0.03234035980925642</v>
       </c>
       <c r="Q6">
-        <v>1.126525408062002</v>
+        <v>0.002015152186666667</v>
       </c>
       <c r="R6">
-        <v>1.126525408062002</v>
+        <v>0.01209091312</v>
       </c>
       <c r="S6">
-        <v>0.03216046244551756</v>
+        <v>4.454356462690399E-05</v>
       </c>
       <c r="T6">
-        <v>0.03216046244551756</v>
+        <v>5.066428068353932E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>6.23075727045983</v>
+        <v>0.012889</v>
       </c>
       <c r="H7">
-        <v>6.23075727045983</v>
+        <v>0.025778</v>
       </c>
       <c r="I7">
-        <v>0.9661500889119102</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J7">
-        <v>0.9661500889119102</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.97039084334425</v>
+        <v>2.1440675</v>
       </c>
       <c r="N7">
-        <v>2.97039084334425</v>
+        <v>4.288135</v>
       </c>
       <c r="O7">
-        <v>0.5468788474449011</v>
+        <v>0.3817467813607913</v>
       </c>
       <c r="P7">
-        <v>0.5468788474449011</v>
+        <v>0.2956673819091459</v>
       </c>
       <c r="Q7">
-        <v>18.50778434327449</v>
+        <v>0.0276348860075</v>
       </c>
       <c r="R7">
-        <v>18.50778434327449</v>
+        <v>0.11053954403</v>
       </c>
       <c r="S7">
-        <v>0.5283670470829342</v>
+        <v>0.0006108503064815014</v>
       </c>
       <c r="T7">
-        <v>0.5283670470829342</v>
+        <v>0.0004631913594766095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H8">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J8">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.153452167344145</v>
+        <v>0.202088</v>
       </c>
       <c r="N8">
-        <v>0.153452167344145</v>
+        <v>0.404176</v>
       </c>
       <c r="O8">
-        <v>0.02825208830788276</v>
+        <v>0.03598135019146532</v>
       </c>
       <c r="P8">
-        <v>0.02825208830788276</v>
+        <v>0.02786797984450371</v>
       </c>
       <c r="Q8">
-        <v>0.9561232073473499</v>
+        <v>0.05372246765599999</v>
       </c>
       <c r="R8">
-        <v>0.9561232073473499</v>
+        <v>0.3223348059359999</v>
       </c>
       <c r="S8">
-        <v>0.02729575763060807</v>
+        <v>0.001187498505465299</v>
       </c>
       <c r="T8">
-        <v>0.02729575763060807</v>
+        <v>0.001350672270980281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H9">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J9">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.12688988333106</v>
+        <v>3.084571666666667</v>
       </c>
       <c r="N9">
-        <v>2.12688988333106</v>
+        <v>9.253715</v>
       </c>
       <c r="O9">
-        <v>0.3915818319480014</v>
+        <v>0.549201601920971</v>
       </c>
       <c r="P9">
-        <v>0.3915818319480014</v>
+        <v>0.6380446713975636</v>
       </c>
       <c r="Q9">
-        <v>13.25213460403246</v>
+        <v>0.8199932781516667</v>
       </c>
       <c r="R9">
-        <v>13.25213460403246</v>
+        <v>7.379939503365</v>
       </c>
       <c r="S9">
-        <v>0.3783268217528503</v>
+        <v>0.01812539212703017</v>
       </c>
       <c r="T9">
-        <v>0.3783268217528503</v>
+        <v>0.03092399413635222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.265837</v>
+      </c>
+      <c r="H10">
+        <v>0.797511</v>
+      </c>
+      <c r="I10">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J10">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P10">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q10">
+        <v>0.005998789129666665</v>
+      </c>
+      <c r="R10">
+        <v>0.05398910216699999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001325991421632891</v>
+      </c>
+      <c r="T10">
+        <v>0.0002262293177441315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.265837</v>
+      </c>
+      <c r="H11">
+        <v>0.797511</v>
+      </c>
+      <c r="I11">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J11">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.020477</v>
+      </c>
+      <c r="O11">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P11">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q11">
+        <v>0.001814514749666667</v>
+      </c>
+      <c r="R11">
+        <v>0.016330632747</v>
+      </c>
+      <c r="S11">
+        <v>4.010861092925347E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.842988226134955E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.265837</v>
+      </c>
+      <c r="H12">
+        <v>0.797511</v>
+      </c>
+      <c r="I12">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J12">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.46904</v>
+      </c>
+      <c r="O12">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P12">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q12">
+        <v>0.04156272882666667</v>
+      </c>
+      <c r="R12">
+        <v>0.37406455944</v>
+      </c>
+      <c r="S12">
+        <v>0.0009187157723424841</v>
+      </c>
+      <c r="T12">
+        <v>0.001567434290953919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.265837</v>
+      </c>
+      <c r="H13">
+        <v>0.797511</v>
+      </c>
+      <c r="I13">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J13">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.1440675</v>
+      </c>
+      <c r="N13">
+        <v>4.288135</v>
+      </c>
+      <c r="O13">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P13">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q13">
+        <v>0.5699724719975</v>
+      </c>
+      <c r="R13">
+        <v>3.419834831985</v>
+      </c>
+      <c r="S13">
+        <v>0.01259885273676181</v>
+      </c>
+      <c r="T13">
+        <v>0.01433005680376873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.237479</v>
+      </c>
+      <c r="I14">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J14">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.202088</v>
+      </c>
+      <c r="N14">
+        <v>0.404176</v>
+      </c>
+      <c r="O14">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P14">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q14">
+        <v>0.01599721871733333</v>
+      </c>
+      <c r="R14">
+        <v>0.09598331230399999</v>
+      </c>
+      <c r="S14">
+        <v>0.000353607608646644</v>
+      </c>
+      <c r="T14">
+        <v>0.0004021967098135652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.237479</v>
+      </c>
+      <c r="I15">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J15">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.253715</v>
+      </c>
+      <c r="O15">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P15">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q15">
+        <v>0.2441736649427778</v>
+      </c>
+      <c r="R15">
+        <v>2.197562984485</v>
+      </c>
+      <c r="S15">
+        <v>0.005397292321905275</v>
+      </c>
+      <c r="T15">
+        <v>0.009208398634635497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.237479</v>
+      </c>
+      <c r="I16">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J16">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P16">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q16">
+        <v>0.001786290651444444</v>
+      </c>
+      <c r="R16">
+        <v>0.016076615863</v>
+      </c>
+      <c r="S16">
+        <v>3.948473648864498E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.736548103857954E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.237479</v>
+      </c>
+      <c r="I17">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J17">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.020477</v>
+      </c>
+      <c r="O17">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P17">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q17">
+        <v>0.0005403174981111111</v>
+      </c>
+      <c r="R17">
+        <v>0.004862857482999999</v>
+      </c>
+      <c r="S17">
+        <v>1.194334976554328E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.037672208852672E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.237479</v>
+      </c>
+      <c r="I18">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J18">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.46904</v>
+      </c>
+      <c r="O18">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P18">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q18">
+        <v>0.01237635001777778</v>
+      </c>
+      <c r="R18">
+        <v>0.11138715016</v>
+      </c>
+      <c r="S18">
+        <v>0.0002735707757010509</v>
+      </c>
+      <c r="T18">
+        <v>0.0004667430643357217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.237479</v>
+      </c>
+      <c r="I19">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J19">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.1440675</v>
+      </c>
+      <c r="N19">
+        <v>4.288135</v>
+      </c>
+      <c r="O19">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P19">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q19">
+        <v>0.1697236686108334</v>
+      </c>
+      <c r="R19">
+        <v>1.018342011665</v>
+      </c>
+      <c r="S19">
+        <v>0.003751625932524388</v>
+      </c>
+      <c r="T19">
+        <v>0.00426713557518604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.697008</v>
+      </c>
+      <c r="H20">
+        <v>15.394016</v>
+      </c>
+      <c r="I20">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J20">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.202088</v>
+      </c>
+      <c r="N20">
+        <v>0.404176</v>
+      </c>
+      <c r="O20">
+        <v>0.03598135019146532</v>
+      </c>
+      <c r="P20">
+        <v>0.02786797984450371</v>
+      </c>
+      <c r="Q20">
+        <v>1.555472952704</v>
+      </c>
+      <c r="R20">
+        <v>6.221891810816</v>
+      </c>
+      <c r="S20">
+        <v>0.03438266869004107</v>
+      </c>
+      <c r="T20">
+        <v>0.02607145299591703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.697008</v>
+      </c>
+      <c r="H21">
+        <v>15.394016</v>
+      </c>
+      <c r="I21">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J21">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084571666666667</v>
+      </c>
+      <c r="N21">
+        <v>9.253715</v>
+      </c>
+      <c r="O21">
+        <v>0.549201601920971</v>
+      </c>
+      <c r="P21">
+        <v>0.6380446713975636</v>
+      </c>
+      <c r="Q21">
+        <v>23.74197279490667</v>
+      </c>
+      <c r="R21">
+        <v>142.45183676944</v>
+      </c>
+      <c r="S21">
+        <v>0.5248001151265183</v>
+      </c>
+      <c r="T21">
+        <v>0.5969127203498288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.697008</v>
+      </c>
+      <c r="H22">
+        <v>15.394016</v>
+      </c>
+      <c r="I22">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J22">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.02256566666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.06769699999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004017770251757696</v>
+      </c>
+      <c r="P22">
+        <v>0.004667715627680435</v>
+      </c>
+      <c r="Q22">
+        <v>0.1736881168586667</v>
+      </c>
+      <c r="R22">
+        <v>1.042128701152</v>
+      </c>
+      <c r="S22">
+        <v>0.003839257357041998</v>
+      </c>
+      <c r="T22">
+        <v>0.004366808403924515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.697008</v>
+      </c>
+      <c r="H23">
+        <v>15.394016</v>
+      </c>
+      <c r="I23">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J23">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.006825666666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.020477</v>
+      </c>
+      <c r="O23">
+        <v>0.001215295824707777</v>
+      </c>
+      <c r="P23">
+        <v>0.001411891411850042</v>
+      </c>
+      <c r="Q23">
+        <v>0.05253721093866667</v>
+      </c>
+      <c r="R23">
+        <v>0.315223265632</v>
+      </c>
+      <c r="S23">
+        <v>0.001161299214147584</v>
+      </c>
+      <c r="T23">
+        <v>0.001320872943958555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.697008</v>
+      </c>
+      <c r="H24">
+        <v>15.394016</v>
+      </c>
+      <c r="I24">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J24">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1563466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.46904</v>
+      </c>
+      <c r="O24">
+        <v>0.02783720045030695</v>
+      </c>
+      <c r="P24">
+        <v>0.03234035980925642</v>
+      </c>
+      <c r="Q24">
+        <v>1.203401544106667</v>
+      </c>
+      <c r="R24">
+        <v>7.220409264640001</v>
+      </c>
+      <c r="S24">
+        <v>0.02660037033763651</v>
+      </c>
+      <c r="T24">
+        <v>0.03025551817328324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.697008</v>
+      </c>
+      <c r="H25">
+        <v>15.394016</v>
+      </c>
+      <c r="I25">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J25">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.1440675</v>
+      </c>
+      <c r="N25">
+        <v>4.288135</v>
+      </c>
+      <c r="O25">
+        <v>0.3817467813607913</v>
+      </c>
+      <c r="P25">
+        <v>0.2956673819091459</v>
+      </c>
+      <c r="Q25">
+        <v>16.50290470004</v>
+      </c>
+      <c r="R25">
+        <v>66.01161880016001</v>
+      </c>
+      <c r="S25">
+        <v>0.3647854523850236</v>
+      </c>
+      <c r="T25">
+        <v>0.2766069981707145</v>
       </c>
     </row>
   </sheetData>
